--- a/GATEWAY/A1#111CONSORZIOODMXX/HSG6/22.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111CONSORZIOODMXX/HSG6/22.1/report-checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fse\INVIO_DATI_20231207\A1#111CONSORZIOODMXX\HSG6\22.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="10245" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="917">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4609,6 +4609,12 @@
   </si>
   <si>
     <t>Il quesito diagnostico è un informazione che deve essere sempre compilata</t>
+  </si>
+  <si>
+    <t>Il campo purpose_of_use non è modificabile</t>
+  </si>
+  <si>
+    <t>Il campo Action_id non è modificabile</t>
   </si>
 </sst>
 </file>
@@ -5395,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="197.140625" defaultRowHeight="96" customHeight="1"/>
@@ -5586,10 +5592,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D381" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J238" sqref="J238"/>
+      <selection pane="bottomRight" activeCell="M176" sqref="M176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6874,7 +6880,7 @@
         <v>134</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>134</v>
+        <v>843</v>
       </c>
       <c r="N38" s="35" t="s">
         <v>883</v>
@@ -6882,7 +6888,9 @@
       <c r="O38" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="P38" s="25"/>
+      <c r="P38" s="25" t="s">
+        <v>915</v>
+      </c>
       <c r="Q38" s="25"/>
       <c r="R38" s="26"/>
       <c r="S38" s="36"/>
@@ -6926,7 +6934,7 @@
         <v>134</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>134</v>
+        <v>843</v>
       </c>
       <c r="N39" s="35" t="s">
         <v>885</v>
@@ -6934,7 +6942,9 @@
       <c r="O39" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="P39" s="25"/>
+      <c r="P39" s="25" t="s">
+        <v>916</v>
+      </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
       <c r="S39" s="36"/>
@@ -11648,7 +11658,7 @@
         <v>134</v>
       </c>
       <c r="M174" s="25" t="s">
-        <v>134</v>
+        <v>843</v>
       </c>
       <c r="N174" s="35" t="s">
         <v>883</v>
@@ -11656,7 +11666,9 @@
       <c r="O174" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="P174" s="25"/>
+      <c r="P174" s="25" t="s">
+        <v>915</v>
+      </c>
       <c r="Q174" s="25"/>
       <c r="R174" s="26"/>
       <c r="S174" s="27"/>
@@ -11700,7 +11712,7 @@
         <v>134</v>
       </c>
       <c r="M175" s="25" t="s">
-        <v>134</v>
+        <v>843</v>
       </c>
       <c r="N175" s="35" t="s">
         <v>885</v>
@@ -11708,7 +11720,9 @@
       <c r="O175" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="P175" s="25"/>
+      <c r="P175" s="25" t="s">
+        <v>916</v>
+      </c>
       <c r="Q175" s="25"/>
       <c r="R175" s="26"/>
       <c r="S175" s="27"/>
